--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9CD555-8AE5-492A-B89F-7147DB634BA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2172" windowWidth="11820" windowHeight="8964" xr2:uid="{A22803D4-50FF-4295-8293-4B5FFCBE5CEB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13354" windowHeight="5957"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -946,12 +945,6 @@
     <t>神秘のメダル</t>
   </si>
   <si>
-    <t>王紋の首飾り</t>
-  </si>
-  <si>
-    <t>王家の紋章が刻まれた首飾り。特殊な魔力を放つ</t>
-  </si>
-  <si>
     <t>誘惑する口穴</t>
   </si>
   <si>
@@ -1149,24 +1142,30 @@
   </si>
   <si>
     <t>精神+1、速さ+8、移動+1</t>
+  </si>
+  <si>
+    <t>A necklace engraved with the crest of the holy family.  Holds an unknown power.</t>
+  </si>
+  <si>
+    <t>King Crest Necklace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1200,7 +1199,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1511,19 +1510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A4E8CF-D70C-4D97-8FFF-088E15A8A805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1627,7 +1626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1851,7 +1850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1859,7 +1858,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>157</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>178</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>180</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>182</v>
       </c>
@@ -2299,7 +2298,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>186</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>194</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>196</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>198</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>200</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>202</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>204</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>209</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>211</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>214</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>216</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>218</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>221</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>223</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>225</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>227</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>229</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>231</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>233</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>235</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>237</v>
       </c>
@@ -2531,77 +2530,77 @@
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>253</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>255</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>257</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>259</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>261</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>263</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>265</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>267</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>269</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>271</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>273</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>275</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>277</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>279</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>280</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>282</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>284</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>285</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>287</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>289</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>293</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>295</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>299</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>301</v>
       </c>
@@ -2809,284 +2808,284 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
+        <v>369</v>
+      </c>
+      <c r="B167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>302</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B169" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>306</v>
+      </c>
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>306</v>
+      </c>
+      <c r="B172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>309</v>
+      </c>
+      <c r="B173" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>311</v>
+      </c>
+      <c r="B174" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>311</v>
+      </c>
+      <c r="B175" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>314</v>
+      </c>
+      <c r="B176" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>316</v>
+      </c>
+      <c r="B177" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>318</v>
+      </c>
+      <c r="B178" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>320</v>
+      </c>
+      <c r="B179" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>322</v>
+      </c>
+      <c r="B180" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>324</v>
+      </c>
+      <c r="B181" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B182" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>328</v>
+      </c>
+      <c r="B183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>332</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B184" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>304</v>
-      </c>
-      <c r="B169" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>306</v>
-      </c>
-      <c r="B170" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>308</v>
-      </c>
-      <c r="B171" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>308</v>
-      </c>
-      <c r="B172" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>313</v>
-      </c>
-      <c r="B174" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>313</v>
-      </c>
-      <c r="B175" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>316</v>
-      </c>
-      <c r="B176" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>318</v>
-      </c>
-      <c r="B177" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>320</v>
-      </c>
-      <c r="B178" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B179" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>324</v>
-      </c>
-      <c r="B180" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>326</v>
-      </c>
-      <c r="B181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B182" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>330</v>
-      </c>
-      <c r="B183" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>334</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>336</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>338</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>340</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>342</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>344</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>346</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>348</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>350</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>352</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>354</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>356</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>358</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>360</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>362</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>364</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>366</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>368</v>
-      </c>
-      <c r="B201" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13354" windowHeight="5957"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -1153,7 +1148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1193,7 +1188,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1309,7 +1307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1503,7 +1501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1511,15 +1509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.61328125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2760,7 +2758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -2768,7 +2766,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>293</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>295</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>299</v>
       </c>
@@ -2800,7 +2798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>301</v>
       </c>
@@ -2808,15 +2806,22 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>369</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>304</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>306</v>
       </c>
@@ -2848,7 +2853,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>309</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>311</v>
       </c>
@@ -2872,7 +2877,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -2880,7 +2885,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>314</v>
       </c>
@@ -3089,6 +3094,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B167:I167"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13354" windowHeight="5957"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1188,10 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1307,7 +1309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1501,7 +1503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1509,15 +1511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2758,7 +2760,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>293</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>295</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>299</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>301</v>
       </c>
@@ -2806,22 +2808,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>369</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>368</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9">
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>330</v>
       </c>
@@ -2829,7 +2824,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -2837,7 +2832,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>304</v>
       </c>
@@ -2845,7 +2840,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>306</v>
       </c>
@@ -2853,7 +2848,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>306</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>309</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>311</v>
       </c>
@@ -2877,7 +2872,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -2885,7 +2880,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>314</v>
       </c>
@@ -3094,9 +3089,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B167:I167"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\English Translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,148 +31,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="370">
   <si>
-    <t>風の聖剣</t>
-  </si>
-  <si>
-    <t>風の力を秘めた聖剣。解放することで武器として使えるようになる。</t>
-  </si>
-  <si>
-    <t>光の聖剣</t>
-  </si>
-  <si>
-    <t>光の力を秘めた聖剣。解放することで武器として使えるようになる。</t>
-  </si>
-  <si>
     <t>封呪の布</t>
   </si>
   <si>
     <t>呪いを抑える力のある布。元は聖剣に巻いてあった。腕に巻き付けて包帯のように使う。</t>
   </si>
   <si>
-    <t>ハードでスタート</t>
-  </si>
-  <si>
-    <t>難易度ハードでスタートします。</t>
-  </si>
-  <si>
     <t>女性キャラ雇用権</t>
   </si>
   <si>
     <t>クリアしたステージの敵淫魔を酒場で仲間にできます。</t>
-  </si>
-  <si>
-    <t>名声+1000</t>
-  </si>
-  <si>
-    <t>最初から名声を+1000得ます。</t>
-  </si>
-  <si>
-    <t>お金+1000</t>
-  </si>
-  <si>
-    <t>最初からお金を+1000得ます。</t>
-  </si>
-  <si>
-    <t>女性のブラ</t>
-  </si>
-  <si>
-    <t>買うとそれに合わせた「サービス」を受けられる・・・。</t>
-  </si>
-  <si>
-    <t>女性の靴下</t>
-  </si>
-  <si>
-    <t>女性のパンツ</t>
-  </si>
-  <si>
-    <t>ポーション</t>
-  </si>
-  <si>
-    <t>使用すると味方の体力を１５回復する。</t>
-  </si>
-  <si>
-    <t>ハイポーション</t>
-  </si>
-  <si>
-    <t>使用すると味方の体力を４５回復する。</t>
-  </si>
-  <si>
-    <t>メガポーション</t>
-  </si>
-  <si>
-    <t>使用すると味方の体力を８０回復する。</t>
-  </si>
-  <si>
-    <t>ミニポーション</t>
-  </si>
-  <si>
-    <t>使用すると味方の体力を５回復する。</t>
-  </si>
-  <si>
-    <t>アルラウネの美酒</t>
-  </si>
-  <si>
-    <t>使用すると体力を全回復する。自身のみ対象。</t>
-  </si>
-  <si>
-    <t>ラミアの紅茶</t>
-  </si>
-  <si>
-    <t>使用すると５ターンの間、体力が徐々に回復する</t>
-  </si>
-  <si>
-    <t>エリクサー</t>
-  </si>
-  <si>
-    <t>使用すると味方全体を全回復する。</t>
-  </si>
-  <si>
-    <t>EXPポーション</t>
-  </si>
-  <si>
-    <t>使用すると経験値を100得ることができる成長薬。</t>
-  </si>
-  <si>
-    <t>無限EXP玉</t>
-  </si>
-  <si>
-    <t>使用すると経験値を100得ることができる宝玉。</t>
-  </si>
-  <si>
-    <t>回避薬</t>
-  </si>
-  <si>
-    <t>3ターンの間、回避率を大きく上げる。</t>
-  </si>
-  <si>
-    <t>超回避薬</t>
-  </si>
-  <si>
-    <t>3ターンの間、回避率を非常に大きく上げる。</t>
-  </si>
-  <si>
-    <t>体力増強薬</t>
-  </si>
-  <si>
-    <t>3ターンの間を最大HPを+20する。</t>
-  </si>
-  <si>
-    <t>超体力増強薬</t>
-  </si>
-  <si>
-    <t>3ターンの間を最大HPを+50する。</t>
-  </si>
-  <si>
-    <t>毒薬</t>
-  </si>
-  <si>
-    <t>相手に「毒」を付与する</t>
-  </si>
-  <si>
-    <t>猛毒薬</t>
-  </si>
-  <si>
-    <t>相手に「猛毒」を付与する</t>
   </si>
   <si>
     <t>力減少薬</t>
@@ -209,90 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メロメロ媚薬</t>
-  </si>
-  <si>
-    <t>所持していると相手に「魅了」を付与することができる。</t>
-  </si>
-  <si>
-    <t>魅惑の香水</t>
-  </si>
-  <si>
-    <t>所持していると周囲の男性の能力を下げる。射程3</t>
-  </si>
-  <si>
-    <t>猛毒スライム瓶</t>
-  </si>
-  <si>
-    <t>中に猛毒スライムの元が入っている瓶。取り出して魔力を注ぐとスライムになる。</t>
-  </si>
-  <si>
-    <t>粉くず</t>
-  </si>
-  <si>
-    <t>特に効果のない粉くず。</t>
-  </si>
-  <si>
-    <t>気つけ薬</t>
-  </si>
-  <si>
-    <t>味方一人の魅了を解除する</t>
-  </si>
-  <si>
-    <t>洗脳解除薬</t>
-  </si>
-  <si>
-    <t>味方一人の「裏切り」を解除する</t>
-  </si>
-  <si>
-    <t>誘惑解除薬</t>
-  </si>
-  <si>
-    <t>味方一人の「誘惑」を解除する</t>
-  </si>
-  <si>
-    <t>発情解除薬</t>
-  </si>
-  <si>
-    <t>味方一人の「発情」を解除する</t>
-  </si>
-  <si>
-    <t>万能薬</t>
-  </si>
-  <si>
-    <t>味方一人の状態異常を回復する。</t>
-  </si>
-  <si>
-    <t>大盛り万能薬</t>
-  </si>
-  <si>
-    <t>特盛り万能薬</t>
-  </si>
-  <si>
-    <t>いやしの葉</t>
-  </si>
-  <si>
-    <t>繰り返し使える魔法の葉。体力を10回復する。</t>
-  </si>
-  <si>
-    <t>かいふくの葉</t>
-  </si>
-  <si>
-    <t>繰り返し使える魔法の葉。体力を20回復する。</t>
-  </si>
-  <si>
-    <t>霊樹の葉</t>
-  </si>
-  <si>
-    <t>繰り返し使える魔法の葉。体力を80回復する。</t>
-  </si>
-  <si>
-    <t>神秘の葉</t>
-  </si>
-  <si>
-    <t>繰り返し使える魔法の葉。体力を120回復する。</t>
-  </si>
-  <si>
     <t>ニガムシの葉</t>
   </si>
   <si>
@@ -755,66 +539,6 @@
     <t>使用者の幸運を―1するアイテム。</t>
   </si>
   <si>
-    <t>弱点付与：胸</t>
-  </si>
-  <si>
-    <t>弱点付与：足</t>
-  </si>
-  <si>
-    <t>弱点付与：キス</t>
-  </si>
-  <si>
-    <t>弱点付与：フェラ</t>
-  </si>
-  <si>
-    <t>弱点付与：手コキ</t>
-  </si>
-  <si>
-    <t>弱点付与：本番</t>
-  </si>
-  <si>
-    <t>弱点付与：魅了</t>
-  </si>
-  <si>
-    <t>弱点解除：胸</t>
-  </si>
-  <si>
-    <t>弱点解除：足</t>
-  </si>
-  <si>
-    <t>弱点解除：キス</t>
-  </si>
-  <si>
-    <t>弱点解除：フェラ</t>
-  </si>
-  <si>
-    <t>弱点解除：手コキ</t>
-  </si>
-  <si>
-    <t>弱点解除：本番</t>
-  </si>
-  <si>
-    <t>弱点解除：魅了</t>
-  </si>
-  <si>
-    <t>力の指輪</t>
-  </si>
-  <si>
-    <t>所持していると力が2アップ。</t>
-  </si>
-  <si>
-    <t>守りの指輪</t>
-  </si>
-  <si>
-    <t>所持していると守備力が2アップ。</t>
-  </si>
-  <si>
-    <t>心の指輪</t>
-  </si>
-  <si>
-    <t>所持していると精神力が2アップ。</t>
-  </si>
-  <si>
     <t>脳筋の指輪</t>
   </si>
   <si>
@@ -879,12 +603,6 @@
     <t>ただの岩</t>
   </si>
   <si>
-    <t>古びた指輪</t>
-  </si>
-  <si>
-    <t>指輪ごとにランダムな効果</t>
-  </si>
-  <si>
     <t>ブラッドペンダント</t>
   </si>
   <si>
@@ -1148,6 +866,288 @@
   </si>
   <si>
     <t>King Crest Necklace</t>
+  </si>
+  <si>
+    <t>Old Ring</t>
+  </si>
+  <si>
+    <t>Each ring has a random effect.</t>
+  </si>
+  <si>
+    <t>Force Weakness: Breasts</t>
+  </si>
+  <si>
+    <t>Force Weakness: Feet</t>
+  </si>
+  <si>
+    <t>Force Weakness: Kiss</t>
+  </si>
+  <si>
+    <t>Force Weakness: Fellatio</t>
+  </si>
+  <si>
+    <t>Force Weakness: Handjob</t>
+  </si>
+  <si>
+    <t>Force Weakness: Sex</t>
+  </si>
+  <si>
+    <t>Force Weakness: Charm</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Breasts</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Feet</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Kiss</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Fellatio</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Handjob</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Sex</t>
+  </si>
+  <si>
+    <t>Resist Weakness: Charm</t>
+  </si>
+  <si>
+    <t>Stiff Start</t>
+  </si>
+  <si>
+    <t>Start with a degree of hardness.</t>
+  </si>
+  <si>
+    <t>Renown +1000</t>
+  </si>
+  <si>
+    <t>Bestows 1000 Renown.</t>
+  </si>
+  <si>
+    <t>Bestows 1000 Gold.</t>
+  </si>
+  <si>
+    <t>You may receive a special "Service" after buying this…</t>
+  </si>
+  <si>
+    <t>Brassiere</t>
+  </si>
+  <si>
+    <t>Stockings</t>
+  </si>
+  <si>
+    <t>Panties</t>
+  </si>
+  <si>
+    <t>Concoction</t>
+  </si>
+  <si>
+    <t>Vulnerary</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>Sweet Tincture</t>
+  </si>
+  <si>
+    <t>Alruane's Nectar</t>
+  </si>
+  <si>
+    <t>Excalibur</t>
+  </si>
+  <si>
+    <t>The holy sword of light.  It's true power will be unleashed when used.</t>
+  </si>
+  <si>
+    <t>The holy sword of wind. It's true power will be unleashed when used.</t>
+  </si>
+  <si>
+    <t>Lamia Tea</t>
+  </si>
+  <si>
+    <t>Use to gradually restore HP for 5 turns.</t>
+  </si>
+  <si>
+    <t>Heals 15 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Heals 45 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Heals 80 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Heals 5 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Fully Heals all HP to unit.</t>
+  </si>
+  <si>
+    <t>Heals all HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Max Potion</t>
+  </si>
+  <si>
+    <t>EXP Potion</t>
+  </si>
+  <si>
+    <t>Infinite EXP Gem</t>
+  </si>
+  <si>
+    <t>Growth medicine that increases EXP by 100 when used.</t>
+  </si>
+  <si>
+    <t>A glimmering jewel that increases EXP by 100 when used.</t>
+  </si>
+  <si>
+    <t>Increases Avoidance for 3 turns.</t>
+  </si>
+  <si>
+    <t>Greatly Increases Avoidance for 3 turns.</t>
+  </si>
+  <si>
+    <t>Speed Tonic</t>
+  </si>
+  <si>
+    <t>Speed Potion</t>
+  </si>
+  <si>
+    <t>Grants HP + 20 for 3 turns.</t>
+  </si>
+  <si>
+    <t>HP Potion</t>
+  </si>
+  <si>
+    <t>HP Tonic</t>
+  </si>
+  <si>
+    <t>Grants HP + 50 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Deadly Poison</t>
+  </si>
+  <si>
+    <t>Poisons an adjacent enemy.</t>
+  </si>
+  <si>
+    <t>Badly poisons an adjacent enemy.</t>
+  </si>
+  <si>
+    <t>Aphrodasiac</t>
+  </si>
+  <si>
+    <t>Seductive Aroma</t>
+  </si>
+  <si>
+    <t>May inflict "Charm" on enemies while held.</t>
+  </si>
+  <si>
+    <t>Lowers the stats of surrouding male units within a three tile radius.</t>
+  </si>
+  <si>
+    <t>Bottled Slime</t>
+  </si>
+  <si>
+    <t>A bottle containing a slime's deadly poison. Converts others into slimes.</t>
+  </si>
+  <si>
+    <t>Powder</t>
+  </si>
+  <si>
+    <t>Powder that serves no real purpose.</t>
+  </si>
+  <si>
+    <t>Smelling Salts</t>
+  </si>
+  <si>
+    <t>Cures an adjacent chamed unit.</t>
+  </si>
+  <si>
+    <t>Brainwashing Medicine</t>
+  </si>
+  <si>
+    <t>Cures an adjacent brainwashed unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temptation Medicine </t>
+  </si>
+  <si>
+    <t>Arousal Nulifier</t>
+  </si>
+  <si>
+    <t>Cures an adjacent unit from arousal.</t>
+  </si>
+  <si>
+    <t>Cures an adjacent unit from seduction.</t>
+  </si>
+  <si>
+    <t>Panacea</t>
+  </si>
+  <si>
+    <t>Removes all negative status conditions.</t>
+  </si>
+  <si>
+    <t>Panacea Pack</t>
+  </si>
+  <si>
+    <t>Large Panacea Pack</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Heals 10- HP.</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Heals 20 HP.</t>
+  </si>
+  <si>
+    <t>Healing Leaf</t>
+  </si>
+  <si>
+    <t>Recovery Leaf</t>
+  </si>
+  <si>
+    <t>Galatine</t>
+  </si>
+  <si>
+    <t>Spirit Leaf</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Heals 80 HP.</t>
+  </si>
+  <si>
+    <t>Goddess Leaf</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Heals 120 HP.</t>
+  </si>
+  <si>
+    <t>Gold +1000</t>
+  </si>
+  <si>
+    <t>Increases strength by 2 when held.</t>
+  </si>
+  <si>
+    <t>Power Band</t>
+  </si>
+  <si>
+    <t>Defence Ring</t>
+  </si>
+  <si>
+    <t>Protection Ring</t>
+  </si>
+  <si>
+    <t>Increases defence by 2 when held.</t>
+  </si>
+  <si>
+    <t>Increases resistance by 2 when held.</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1524,1568 +1524,1568 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B126" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="B141" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="B146" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B154" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B157" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="B162" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>205</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="B167" t="s">
-        <v>368</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B171" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="B172" t="s">
-        <v>308</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="B173" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="B177" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="B179" t="s">
-        <v>321</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="B180" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="B181" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="B182" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="B183" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>238</v>
       </c>
       <c r="B184" t="s">
-        <v>333</v>
+        <v>239</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="B186" t="s">
-        <v>337</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="B188" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="B189" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>345</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="B191" t="s">
-        <v>347</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
       <c r="B192" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="B193" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="B194" t="s">
-        <v>353</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="B195" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s">
-        <v>357</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="B197" t="s">
-        <v>359</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="B198" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>362</v>
+        <v>268</v>
       </c>
       <c r="B199" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>367</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -1513,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -958,9 +958,6 @@
     <t>Alruane's Nectar</t>
   </si>
   <si>
-    <t>Excalibur</t>
-  </si>
-  <si>
     <t>The holy sword of light.  It's true power will be unleashed when used.</t>
   </si>
   <si>
@@ -1114,9 +1111,6 @@
     <t>Recovery Leaf</t>
   </si>
   <si>
-    <t>Galatine</t>
-  </si>
-  <si>
     <t>Spirit Leaf</t>
   </si>
   <si>
@@ -1148,6 +1142,12 @@
   </si>
   <si>
     <t>Increases resistance by 2 when held.</t>
+  </si>
+  <si>
+    <t>Kazemaken</t>
+  </si>
+  <si>
+    <t>Hikarimaken</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1524,18 +1524,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1572,7 +1572,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>296</v>
@@ -1607,7 +1607,7 @@
         <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1615,15 +1615,15 @@
         <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1639,15 +1639,15 @@
         <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" t="s">
         <v>309</v>
-      </c>
-      <c r="B16" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1655,71 +1655,71 @@
         <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" t="s">
         <v>328</v>
-      </c>
-      <c r="B23" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1772,122 +1772,122 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" t="s">
         <v>338</v>
-      </c>
-      <c r="B34" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
         <v>340</v>
-      </c>
-      <c r="B35" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
         <v>342</v>
-      </c>
-      <c r="B36" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>343</v>
+      </c>
+      <c r="B37" t="s">
         <v>344</v>
-      </c>
-      <c r="B37" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
         <v>347</v>
-      </c>
-      <c r="B39" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" t="s">
         <v>350</v>
-      </c>
-      <c r="B40" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2602,26 +2602,26 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B141" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>364</v>
+      </c>
+      <c r="B142" t="s">
         <v>366</v>
-      </c>
-      <c r="B142" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143" t="s">
         <v>367</v>
-      </c>
-      <c r="B143" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="144" spans="1:2">

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -29,225 +29,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="370">
-  <si>
-    <t>封呪の布</t>
-  </si>
-  <si>
-    <t>呪いを抑える力のある布。元は聖剣に巻いてあった。腕に巻き付けて包帯のように使う。</t>
-  </si>
-  <si>
-    <t>女性キャラ雇用権</t>
-  </si>
-  <si>
-    <t>クリアしたステージの敵淫魔を酒場で仲間にできます。</t>
-  </si>
-  <si>
-    <t>力減少薬</t>
-  </si>
-  <si>
-    <t>相手の「力」を永続的に-1する。</t>
-  </si>
-  <si>
-    <t>守備減少薬</t>
-  </si>
-  <si>
-    <t>相手の「守備力」を永続的に-1する。</t>
-  </si>
-  <si>
-    <t>魔力減少薬</t>
-  </si>
-  <si>
-    <t>相手の「魔力」を永続的に-1する。</t>
-  </si>
-  <si>
-    <t>技減少薬</t>
-  </si>
-  <si>
-    <t>速さ減少薬</t>
-  </si>
-  <si>
-    <t>相手の「速さ」を永続的に-1する。</t>
-  </si>
-  <si>
-    <t>全能力減少薬</t>
-  </si>
-  <si>
-    <t>相手の全能力を永続的に-2する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニガムシの葉</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="371">
   <si>
     <t>ちぎってなめると苦みから正気に戻る葉。魅了・発情から回復する。</t>
   </si>
   <si>
-    <t>風のマント</t>
-  </si>
-  <si>
     <t>エルフからもらったマント。所持していると速さ+5。</t>
   </si>
   <si>
-    <t>俊足ブーツ</t>
-  </si>
-  <si>
     <t>所持していると移動力が１上がる。</t>
   </si>
   <si>
-    <t>韋駄天の靴</t>
-  </si>
-  <si>
     <t>所持していると移動力が3上がる。</t>
   </si>
   <si>
-    <t>超俊足ブーツ</t>
-  </si>
-  <si>
     <t>所持していると移動力が12上がる。</t>
   </si>
   <si>
-    <t>超成長の珠</t>
-  </si>
-  <si>
     <t>所持しているとレベルアップ時に成長補正がかかる宝玉。</t>
   </si>
   <si>
-    <t>癒しの宝玉</t>
-  </si>
-  <si>
     <t>自身の体力を25回復する（何回でも使用可能）</t>
   </si>
   <si>
-    <t>生命の宝玉</t>
-  </si>
-  <si>
     <t>所持していると毎ターン10自然回復する。</t>
   </si>
   <si>
-    <t>時戻しの宝玉</t>
-  </si>
-  <si>
     <t>時空をゆがめて味方全体をもう一度行動可能にする宝玉。一度しか使えない。</t>
   </si>
   <si>
-    <t>鉄アレイ</t>
-  </si>
-  <si>
     <t>所持していると力が少し伸びやすくなる。</t>
   </si>
   <si>
-    <t>スタミナスーツ</t>
-  </si>
-  <si>
     <t>重りを入れた服。所持しているとHPが少し伸びやすくなる。</t>
   </si>
   <si>
-    <t>重り入りブーツ</t>
-  </si>
-  <si>
     <t>所持していると速さが少し伸びやすくなる。</t>
   </si>
   <si>
-    <t>器用グローブ</t>
-  </si>
-  <si>
     <t>所持していると技が少し伸びやすくなる。</t>
   </si>
   <si>
-    <t>神秘のコケ</t>
-  </si>
-  <si>
     <t>所持していると魔力が少し伸びやすくなる。</t>
   </si>
   <si>
-    <t>元気フラッグ</t>
-  </si>
-  <si>
     <t>所持しているとHPの成長にやや大きなボーナスが付く。</t>
   </si>
   <si>
-    <t>おもちゃの人形</t>
-  </si>
-  <si>
     <t>少年がくれたおもちゃの人形。所持していると心を強く持てる。</t>
   </si>
   <si>
-    <t>エルフのお守り</t>
-  </si>
-  <si>
     <t>精神力+1、魔力+2、幸運+2</t>
   </si>
   <si>
-    <t>四葉のクローバー</t>
-  </si>
-  <si>
     <t>幸運+10</t>
   </si>
   <si>
-    <t>ヘビーアーマー</t>
-  </si>
-  <si>
     <t>重い鎧で防御力抜群。</t>
   </si>
   <si>
-    <t>スモールシールド</t>
-  </si>
-  <si>
     <t>小さな金属製の盾</t>
   </si>
   <si>
-    <t>クラスチェンジの証</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>所持しているとクラスチェンジができるようになる。</t>
   </si>
   <si>
-    <t>ヒールの魔術書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>味方一人の体力を25回復する(射程全域)。</t>
   </si>
   <si>
-    <t>癒しの杖</t>
-  </si>
-  <si>
     <t>味方一人の体力を30回復する杖。射程２。</t>
   </si>
   <si>
-    <t>大回復の杖</t>
-  </si>
-  <si>
     <t>味方一人の体力を60回復する杖。射程２。</t>
   </si>
   <si>
-    <t>大森林の杖</t>
-  </si>
-  <si>
     <t>味方一人の体力を30回復する杖。素材の木がよく、魔力が遠くまで届く。</t>
   </si>
   <si>
-    <t>全体回復の杖（弱）</t>
-  </si>
-  <si>
     <t>味方全員の体力を8回復する杖。</t>
   </si>
   <si>
-    <t>全体回復の杖（中）</t>
-  </si>
-  <si>
     <t>味方全員の体力を25回復する杖。</t>
   </si>
   <si>
-    <t>全体回復の杖（大）</t>
-  </si>
-  <si>
     <t>味方全員の体力を65回復する杖。</t>
-  </si>
-  <si>
-    <t>祈りの杖</t>
   </si>
   <si>
     <t>範囲6の味方の体力を魔力分だけ回復する杖。耐久に優れる。</t>
@@ -377,9 +242,6 @@
     <t>ふつうの兵士。</t>
   </si>
   <si>
-    <t>エリート雑兵</t>
-  </si>
-  <si>
     <t>才能のある兵士。</t>
   </si>
   <si>
@@ -390,19 +252,10 @@
     <t>味方の基礎ステを上げられる。戦闘力は低い</t>
   </si>
   <si>
-    <t>発掘家</t>
-  </si>
-  <si>
     <t>特技「発掘」でアイテムを収集できる</t>
   </si>
   <si>
-    <t>ランサー</t>
-  </si>
-  <si>
     <t>「技」の高い槍使い</t>
-  </si>
-  <si>
-    <t>ヒーラー</t>
   </si>
   <si>
     <t>回復の杖が使える癒し手</t>
@@ -1144,10 +997,157 @@
     <t>Increases resistance by 2 when held.</t>
   </si>
   <si>
-    <t>Kazemaken</t>
-  </si>
-  <si>
-    <t>Hikarimaken</t>
+    <t>Permantly decreases foe's defence by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Strength Sap</t>
+  </si>
+  <si>
+    <t>Defense Sap</t>
+  </si>
+  <si>
+    <t>Magic Sap</t>
+  </si>
+  <si>
+    <t>Skill Sap</t>
+  </si>
+  <si>
+    <t>Speed Sap</t>
+  </si>
+  <si>
+    <t>Vaunted Sap</t>
+  </si>
+  <si>
+    <t>Permantly decreases foe's strength by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permantly decreases foe's skill by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permantly decreases foe's magic by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permantly decreases foe's speed by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permantly decreases all foe's stats by 2 after combat.</t>
+  </si>
+  <si>
+    <t>Female Recruitment Deploma</t>
+  </si>
+  <si>
+    <t>When held, allows female succubus enemies from past chapters to be recruited.</t>
+  </si>
+  <si>
+    <t>Amihan</t>
+  </si>
+  <si>
+    <t>Mithrus</t>
+  </si>
+  <si>
+    <t>Sealed Cloth Sigil</t>
+  </si>
+  <si>
+    <t>A cloth with the power to surpress curses. Originaly wrapped around the holy sword Mithrus. It's used to cover the hilt of the sword.</t>
+  </si>
+  <si>
+    <t>Sour Leaf</t>
+  </si>
+  <si>
+    <t>Swift Mantle</t>
+  </si>
+  <si>
+    <t>Pegasus Boots</t>
+  </si>
+  <si>
+    <t>Dash Boots</t>
+  </si>
+  <si>
+    <t>Boots of Hermes</t>
+  </si>
+  <si>
+    <t>Ultra Growth Gem</t>
+  </si>
+  <si>
+    <t>Gem of Healing</t>
+  </si>
+  <si>
+    <t>Gem of Life</t>
+  </si>
+  <si>
+    <t>Turnwheel Gem</t>
+  </si>
+  <si>
+    <t>Iron Dumbbells</t>
+  </si>
+  <si>
+    <t>Stamina Suit</t>
+  </si>
+  <si>
+    <t>Weighted Boots</t>
+  </si>
+  <si>
+    <t>Dexterous glove</t>
+  </si>
+  <si>
+    <t>Mystery Moss</t>
+  </si>
+  <si>
+    <t>Lively Flag</t>
+  </si>
+  <si>
+    <t>Toy Doll</t>
+  </si>
+  <si>
+    <t>Elf's Amulet</t>
+  </si>
+  <si>
+    <t>Fourleafed Clover</t>
+  </si>
+  <si>
+    <t>Heavy Armour</t>
+  </si>
+  <si>
+    <t>Small Shield</t>
+  </si>
+  <si>
+    <t>Class Change Certificate</t>
+  </si>
+  <si>
+    <t>Healing Tome</t>
+  </si>
+  <si>
+    <t>Healing Cane</t>
+  </si>
+  <si>
+    <t>Healing Staff</t>
+  </si>
+  <si>
+    <t>Forest Staff</t>
+  </si>
+  <si>
+    <t>All Recovery Staff (Weak)</t>
+  </si>
+  <si>
+    <t>All Recovery Staff (Medium)</t>
+  </si>
+  <si>
+    <t>All Recovery Staff (Strong)</t>
+  </si>
+  <si>
+    <t>Prayer Staff</t>
+  </si>
+  <si>
+    <t>Lancer</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>Discoverable House</t>
+  </si>
+  <si>
+    <t>Elite Soilder</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1524,1568 +1524,1568 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>361</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>363</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="B143" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="B145" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="B150" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="B156" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B158" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B159" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B162" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="B163" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="B165" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B170" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B171" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="B175" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="B185" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="B188" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="B192" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="B195" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="B199" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="367">
   <si>
     <t>ちぎってなめると苦みから正気に戻る葉。魅了・発情から回復する。</t>
   </si>
@@ -118,137 +118,63 @@
     <t>範囲6の味方の体力を魔力分だけ回復する杖。耐久に優れる。</t>
   </si>
   <si>
-    <t>奇跡の杖</t>
-  </si>
-  <si>
     <t>範囲6の味方の体力を魔力*2だけ回復する杖。耐久に優れる。</t>
   </si>
   <si>
-    <t>魅了回復の杖</t>
-  </si>
-  <si>
     <t>味方一人の魅了を回復する杖。射程２。</t>
   </si>
   <si>
-    <t>洗脳回復の杖</t>
-  </si>
-  <si>
     <t>味方一人の「裏切り」を回復する杖。射程２。</t>
   </si>
   <si>
-    <t>異常回復の杖</t>
-  </si>
-  <si>
     <t>味方一人の状態異常をすべて回復する杖。射程２。</t>
   </si>
   <si>
     <t>相手一人に「金縛り」を付与。</t>
   </si>
   <si>
-    <t>金縛りの杖</t>
-  </si>
-  <si>
-    <t>攻撃力強化の杖</t>
-  </si>
-  <si>
     <t>味方一人に「攻撃力増加」を付与。</t>
   </si>
   <si>
-    <t>倍速の杖</t>
-  </si>
-  <si>
     <t>既に行動した味方一人を再行動させる。</t>
   </si>
   <si>
-    <t>救出の杖</t>
-  </si>
-  <si>
     <t>味方一人を自分のもとに引き寄せる</t>
   </si>
   <si>
-    <t>転移魔術</t>
-  </si>
-  <si>
     <t>味方一人を自分のもとに引き寄せる（モルジア専用）</t>
   </si>
   <si>
-    <t>鈍足の呪い</t>
-  </si>
-  <si>
     <t>敵1人に鈍足を付与する（速さと移動力低下）</t>
   </si>
   <si>
-    <t>金縛りの呪い</t>
-  </si>
-  <si>
     <t>敵1人に「金縛り」（移動封印）を付与する</t>
   </si>
   <si>
-    <t>魔力低下の呪い</t>
-  </si>
-  <si>
     <t>敵1人に魔力低下を付与する。</t>
   </si>
   <si>
-    <t>防御低下の呪い</t>
-  </si>
-  <si>
     <t>敵1人に守備力低下を付与する。</t>
   </si>
   <si>
-    <t>幸運低下の呪い</t>
-  </si>
-  <si>
     <t>敵1人に幸運低下を付与する。</t>
   </si>
   <si>
-    <t>鈍足の呪い改</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金縛りの呪い改</t>
-  </si>
-  <si>
-    <t>魔力低下の呪い改</t>
-  </si>
-  <si>
-    <t>防御低下の呪い改</t>
-  </si>
-  <si>
-    <t>幸運低下の呪い改</t>
-  </si>
-  <si>
-    <t>白紙の呪術書</t>
-  </si>
-  <si>
     <t>使用するとページが1枚消費され、ランダムで呪いの力が充填される。</t>
   </si>
   <si>
-    <t>屈服 / 降参</t>
-  </si>
-  <si>
     <t>使用すると味方全員が勝負をあきらめて無抵抗になる。</t>
   </si>
   <si>
-    <t>自己状態異常付与</t>
-  </si>
-  <si>
     <t>使用すると使用者に任意のバッドステータスを付与する。</t>
   </si>
   <si>
-    <t>凡骨雑兵</t>
-  </si>
-  <si>
     <t>ふつうの兵士。</t>
   </si>
   <si>
     <t>才能のある兵士。</t>
   </si>
   <si>
-    <t>教官</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>味方の基礎ステを上げられる。戦闘力は低い</t>
   </si>
   <si>
@@ -261,65 +187,31 @@
     <t>回復の杖が使える癒し手</t>
   </si>
   <si>
-    <t>アルケミスト</t>
-  </si>
-  <si>
     <t>薬を調合できる職人</t>
   </si>
   <si>
-    <t>軍旗持ち</t>
-  </si>
-  <si>
     <t>近くにいる味方を強化する支援ユニット</t>
   </si>
   <si>
-    <t>盗賊くずれ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HPと攻撃力にすぐれるユニット</t>
   </si>
   <si>
-    <t>呪術師</t>
-  </si>
-  <si>
     <t>相手の妨害に特化したユニット</t>
   </si>
   <si>
-    <t>格闘家</t>
-  </si>
-  <si>
     <t>己の肉体のみで戦い、武器やアイテムの消費の少ないユニット。</t>
   </si>
   <si>
-    <t>攻撃強化（弱）</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、その攻撃力を強化する</t>
   </si>
   <si>
-    <t>HP強化（中）</t>
-  </si>
-  <si>
-    <t>HP強化（弱）</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、その最大HPを強化する</t>
   </si>
   <si>
-    <t>技強化（弱）</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、その技を強化する</t>
   </si>
   <si>
     <t>隣接する味方を指定して、その速さを強化する</t>
-  </si>
-  <si>
-    <t>速さ強化（弱）</t>
-  </si>
-  <si>
-    <t>攻撃強化（強）</t>
   </si>
   <si>
     <t>幸運強化（強）</t>
@@ -392,9 +284,6 @@
     <t>使用者の幸運を―1するアイテム。</t>
   </si>
   <si>
-    <t>脳筋の指輪</t>
-  </si>
-  <si>
     <t>力を２上げる代わりに魔力が５下がる指輪。</t>
   </si>
   <si>
@@ -516,9 +405,6 @@
     <t>神秘のメダル</t>
   </si>
   <si>
-    <t>誘惑する口穴</t>
-  </si>
-  <si>
     <t>射程3。「フェラに弱い」相手を誘引し魅了を付与する</t>
   </si>
   <si>
@@ -558,37 +444,19 @@
     <t>射程１。「誘惑」相手を即死させる。</t>
   </si>
   <si>
-    <t>Pテンプテーション</t>
-  </si>
-  <si>
     <t>「パンチラテンプテーション」。射程4、範囲3。「自慰狂い」付与。</t>
   </si>
   <si>
-    <t>発情キスレイン</t>
-  </si>
-  <si>
     <t>投げキッスの雨を降らせて、「発情」「勃起」を付与（射程5）。</t>
   </si>
   <si>
-    <t>ハーレムキスレイン</t>
-  </si>
-  <si>
     <t>投げキッスの雨を降らせて、範囲5に「裏切り」を付与。</t>
   </si>
   <si>
-    <t>誘惑の弓矢</t>
-  </si>
-  <si>
     <t>「誘惑」を付与。射程６</t>
   </si>
   <si>
-    <t>夢の牢獄</t>
-  </si>
-  <si>
     <t>「おっぱいに弱い」相手を攻撃した時に発動。相手を夢に閉じ込め洗脳する。</t>
-  </si>
-  <si>
-    <t>誘惑パイズリホール</t>
   </si>
   <si>
     <t>周囲６マスの敵に「弱点：おっぱい」を付与。</t>
@@ -685,9 +553,6 @@
     <t>相手をのろくする草。相手の速さを永続的に-3する。</t>
   </si>
   <si>
-    <t>活力のリンゴ</t>
-  </si>
-  <si>
     <t>食べると活力がみなぎる魔法のリンゴ。最大HP+10。</t>
   </si>
   <si>
@@ -1147,7 +1012,127 @@
     <t>Discoverable House</t>
   </si>
   <si>
-    <t>Elite Soilder</t>
+    <t>Wonderous Cane</t>
+  </si>
+  <si>
+    <t>Brainwashing Restoration Stave</t>
+  </si>
+  <si>
+    <t>Charm Restoration Stave</t>
+  </si>
+  <si>
+    <t>Curious Restoration Save</t>
+  </si>
+  <si>
+    <t>Stave of Paralysis</t>
+  </si>
+  <si>
+    <t>Powerup Stave</t>
+  </si>
+  <si>
+    <t>Speed Stave</t>
+  </si>
+  <si>
+    <t>Entrap+</t>
+  </si>
+  <si>
+    <t>Entrap</t>
+  </si>
+  <si>
+    <t>Heavy Footed Curse</t>
+  </si>
+  <si>
+    <t>Paralysis Curse</t>
+  </si>
+  <si>
+    <t>Magic Down Curse</t>
+  </si>
+  <si>
+    <t>Defence Down Curse</t>
+  </si>
+  <si>
+    <t>Luck Down Curse</t>
+  </si>
+  <si>
+    <t>Enchanted Inscription</t>
+  </si>
+  <si>
+    <t>Surrender/Give up</t>
+  </si>
+  <si>
+    <t>Negative Status Inflictor</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Elite Soldier</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Flag Bearer</t>
+  </si>
+  <si>
+    <t>Upstart Thief</t>
+  </si>
+  <si>
+    <t>Magician</t>
+  </si>
+  <si>
+    <t>Martial artist</t>
+  </si>
+  <si>
+    <t>Attack Boost</t>
+  </si>
+  <si>
+    <t>Attack Boost+</t>
+  </si>
+  <si>
+    <t>HP Boost</t>
+  </si>
+  <si>
+    <t>HP Boost+</t>
+  </si>
+  <si>
+    <t>Skill Boost</t>
+  </si>
+  <si>
+    <t>Speed Boost</t>
+  </si>
+  <si>
+    <t>Muscle Ring</t>
+  </si>
+  <si>
+    <t>Paizuri Hold Temptation</t>
+  </si>
+  <si>
+    <t>Dream Prison</t>
+  </si>
+  <si>
+    <t>Alluring Bow</t>
+  </si>
+  <si>
+    <t>Harem Rain Kiss</t>
+  </si>
+  <si>
+    <t>Arousal Rain Kiss</t>
+  </si>
+  <si>
+    <t>Panty Temptation</t>
+  </si>
+  <si>
+    <t>Seducing Song</t>
+  </si>
+  <si>
+    <t>Energy Apple</t>
+  </si>
+  <si>
+    <t>Melty Mouth</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection sqref="A1:D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1524,375 +1509,375 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1900,7 +1885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1908,7 +1893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1916,7 +1901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1924,7 +1909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1932,7 +1917,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1940,7 +1925,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1948,7 +1933,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1956,7 +1941,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1964,7 +1949,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1972,7 +1957,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1980,7 +1965,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1988,7 +1973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1996,7 +1981,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -2004,7 +1989,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -2012,7 +1997,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2020,7 +2005,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2028,7 +2013,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -2036,7 +2021,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2044,7 +2029,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -2052,7 +2037,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2060,7 +2045,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -2068,7 +2053,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2076,7 +2061,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -2084,7 +2069,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -2092,7 +2077,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -2100,7 +2085,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -2108,7 +2093,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2116,7 +2101,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -2124,968 +2109,968 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>326</v>
+      </c>
+      <c r="B76" t="s">
         <v>29</v>
-      </c>
-      <c r="B76" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="B77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>336</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>337</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="B96" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="B112" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B158" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="B167" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B171" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B173" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="B175" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>363</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>361</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>359</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B185" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="B186" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B187" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="B188" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B193" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="B194" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>216</v>
+        <v>365</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B199" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="B200" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="367">
   <si>
     <t>ちぎってなめると苦みから正気に戻る葉。魅了・発情から回復する。</t>
   </si>
@@ -214,233 +214,119 @@
     <t>隣接する味方を指定して、その速さを強化する</t>
   </si>
   <si>
-    <t>幸運強化（強）</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、その幸運を強化する</t>
-  </si>
-  <si>
-    <t>技強化（強）</t>
-  </si>
-  <si>
-    <t>速さ強化（強）</t>
   </si>
   <si>
     <t>隣接する味方を指定して、その技を強化する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔力強化（強）</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、その魔力を強化する</t>
   </si>
   <si>
-    <t>全能力強化</t>
-  </si>
-  <si>
     <t>隣接する味方を指定して、そのすべての能力を強化する</t>
   </si>
   <si>
-    <t>HPダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者のHPを―3するアイテム。</t>
   </si>
   <si>
-    <t>力ダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の力を―1するアイテム。</t>
   </si>
   <si>
-    <t>魔力ダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の魔力を―1するアイテム。</t>
   </si>
   <si>
-    <t>技ダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の技を―1するアイテム。</t>
   </si>
   <si>
-    <t>速さダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の速さを―1するアイテム。</t>
   </si>
   <si>
-    <t>精神力ダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の精神力を―1するアイテム。</t>
   </si>
   <si>
-    <t>幸運ダウン（弱）</t>
-  </si>
-  <si>
     <t>使用者の幸運を―1するアイテム。</t>
   </si>
   <si>
     <t>力を２上げる代わりに魔力が５下がる指輪。</t>
   </si>
   <si>
-    <t>運まかせの指輪</t>
-  </si>
-  <si>
     <t>幸運を３、速さを５上げる代わりに精神が５下がる指輪。</t>
   </si>
   <si>
-    <t>全能力アップの指輪</t>
-  </si>
-  <si>
     <t>全能力を+1する指輪</t>
   </si>
   <si>
-    <t>土くれ</t>
-  </si>
-  <si>
     <t>20Gで売れるアイテム</t>
   </si>
   <si>
-    <t>雑貨</t>
-  </si>
-  <si>
     <t>200Gで売れるアイテム</t>
   </si>
   <si>
-    <t>古びたツボ（換金）</t>
-  </si>
-  <si>
     <t>600Gで売れるアイテム</t>
   </si>
   <si>
-    <t>欠けた陶器（換金）</t>
-  </si>
-  <si>
     <t>300Gで売れるアイテム</t>
-  </si>
-  <si>
-    <t>金の置物（換金）</t>
   </si>
   <si>
     <t>1000Gで売れるアイテム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銀の燭台（換金）</t>
-  </si>
-  <si>
     <t>800Gで売れるアイテム</t>
   </si>
   <si>
-    <t>謎の木像（換金）</t>
-  </si>
-  <si>
     <t>700Gで売れるアイテム</t>
   </si>
   <si>
-    <t>ただの岩</t>
-  </si>
-  <si>
-    <t>ブラッドペンダント</t>
-  </si>
-  <si>
     <t>所持しているとステータスがあがる。</t>
   </si>
   <si>
-    <t>ルミナスペンダント</t>
-  </si>
-  <si>
-    <t>ハッピージュエル</t>
-  </si>
-  <si>
     <t>所持していると幸運+20。幸運の成長+1。</t>
   </si>
   <si>
-    <t>古びた石板</t>
-  </si>
-  <si>
     <t>最大HP+30</t>
   </si>
   <si>
-    <t>神秘の石板</t>
-  </si>
-  <si>
     <t>最大HP+100</t>
   </si>
   <si>
-    <t>古の神像</t>
-  </si>
-  <si>
     <t>神像の加護で生存能力が上がる。</t>
   </si>
   <si>
-    <t>不思議な鉱石</t>
-  </si>
-  <si>
     <t>全能力+2</t>
   </si>
   <si>
-    <t>魔法のランプ</t>
-  </si>
-  <si>
     <t>最大HP+10、魔力+4、幸運+2</t>
   </si>
   <si>
-    <t>呪いのツボ</t>
-  </si>
-  <si>
     <t>HP+30、力+5、移動力+1、毎ターン10ダメージ受ける。</t>
   </si>
   <si>
-    <t>幸運のメダル</t>
-  </si>
-  <si>
     <t>幸運が高いとまれに連続行動できる</t>
   </si>
   <si>
-    <t>神秘のメダル</t>
-  </si>
-  <si>
     <t>射程3。「フェラに弱い」相手を誘引し魅了を付与する</t>
   </si>
   <si>
-    <t>誘惑する谷間</t>
-  </si>
-  <si>
     <t>射程4。「おっぱいに弱い」相手を誘引し３０ダメージを与える</t>
   </si>
   <si>
-    <t>強制洗脳ぱふぱふ</t>
-  </si>
-  <si>
     <t>射程3。「おっぱいに弱い」相手を洗脳する</t>
   </si>
   <si>
     <t>範囲1。相手をおっぱいの快楽で洗脳する</t>
   </si>
   <si>
-    <t>魅了フェロモン</t>
-  </si>
-  <si>
     <t>射程2。「発情」相手を「魅了」する</t>
   </si>
   <si>
-    <t>蠱惑の歌</t>
-  </si>
-  <si>
     <t>隣接した相手に「洗脳」を付与する。</t>
   </si>
   <si>
     <t>範囲５の敵に「洗脳」を付与する。</t>
   </si>
   <si>
-    <t>捕食する花弁</t>
-  </si>
-  <si>
     <t>射程１。「誘惑」相手を即死させる。</t>
   </si>
   <si>
@@ -462,121 +348,64 @@
     <t>周囲６マスの敵に「弱点：おっぱい」を付与。</t>
   </si>
   <si>
-    <t>高揚の舞</t>
-  </si>
-  <si>
     <t>味方全体の攻撃力を大きくあげる。</t>
   </si>
   <si>
-    <t>発情回避の腕輪</t>
-  </si>
-  <si>
     <t>「発情」を無効にする腕輪。</t>
   </si>
   <si>
-    <t>そよ風の舞</t>
-  </si>
-  <si>
     <t>味方全体の速さを大きくあげる。</t>
   </si>
   <si>
-    <t>エイジドレインギガ</t>
-  </si>
-  <si>
     <t>敵全体にミニマム（永続）を付与。相手を手のひらサイズにもできる魔法。</t>
   </si>
   <si>
-    <t>応援キッス</t>
-  </si>
-  <si>
     <t>味方一人の移動力を一時的に+3する。</t>
   </si>
   <si>
-    <t>幻影蘇生</t>
-  </si>
-  <si>
     <t>幻影が死亡しても復活させることができる。</t>
   </si>
   <si>
-    <t>エスナ姫のお守り</t>
-  </si>
-  <si>
     <t>精神力+3。自軍の精神的な状態異常を解除できる。（無限使用）</t>
   </si>
   <si>
-    <t>淫魔のパンツ</t>
-  </si>
-  <si>
     <t>淫魔が手渡してきたパンツ。彼女たちの匂いがしみついている。</t>
   </si>
   <si>
-    <t>淫魔のブラ</t>
-  </si>
-  <si>
     <t>淫魔がつけているブラ。</t>
   </si>
   <si>
-    <t>メイドの手袋</t>
-  </si>
-  <si>
     <t>メイド淫魔が着用していた手袋。肌触りがとてもよい。持っているだけでムラムラしてくる。</t>
   </si>
   <si>
-    <t>セクシーパンツ</t>
-  </si>
-  <si>
     <t>淫魔が着用していた下着。布面積が非常に少なく過激である。甘い匂いがして力が抜けてしまう。</t>
   </si>
   <si>
-    <t>アリスのブラ</t>
-  </si>
-  <si>
     <t>乳魔アリスが使用しているブラジャー。持っているだけで理性がとろける。</t>
-  </si>
-  <si>
-    <t>巨大回復キノコ</t>
   </si>
   <si>
     <t>食べると自分の体力を30回復するキノコ。大きいので5回も使える。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>魔吸茸</t>
-  </si>
-  <si>
     <t>魔力を吸い取るキノコ。使うと相手の魔力を永続的に-1する。</t>
   </si>
   <si>
-    <t>のろいの草</t>
-  </si>
-  <si>
     <t>相手をのろくする草。相手の速さを永続的に-3する。</t>
   </si>
   <si>
     <t>食べると活力がみなぎる魔法のリンゴ。最大HP+10。</t>
   </si>
   <si>
-    <t>黄金のリンゴ</t>
-  </si>
-  <si>
     <t>食べると生命力がみなぎる魔法のリンゴ。最大HP+20。</t>
   </si>
   <si>
-    <t>魔獣の牙</t>
-  </si>
-  <si>
     <t>兵士たち十数人で討伐した魔獣の牙。力+2、幸運+1</t>
   </si>
   <si>
-    <t>悪魔の角</t>
-  </si>
-  <si>
     <t>HP+5、力+1、魔力+3</t>
   </si>
   <si>
-    <t>霊獣の木彫り人形</t>
-  </si>
-  <si>
     <t>精神+1、速さ+8、移動+1</t>
   </si>
   <si>
@@ -1133,6 +962,177 @@
   </si>
   <si>
     <t>Melty Mouth</t>
+  </si>
+  <si>
+    <t>Legendary Beast Statue</t>
+  </si>
+  <si>
+    <t>Demon Edge</t>
+  </si>
+  <si>
+    <t>Legendary Tusk</t>
+  </si>
+  <si>
+    <t>Golden Apple</t>
+  </si>
+  <si>
+    <t>Cursed Grass</t>
+  </si>
+  <si>
+    <t>Magic Draining Mushroom</t>
+  </si>
+  <si>
+    <t>Giant Restoration Mushroom</t>
+  </si>
+  <si>
+    <t>Alice's Brassire</t>
+  </si>
+  <si>
+    <t>Sexy Panties</t>
+  </si>
+  <si>
+    <t>Maid's Glove</t>
+  </si>
+  <si>
+    <t>Succubus Brassire</t>
+  </si>
+  <si>
+    <t>Succubus Panties</t>
+  </si>
+  <si>
+    <t>Princess Esuna's Pendant</t>
+  </si>
+  <si>
+    <t>Restore Illusions</t>
+  </si>
+  <si>
+    <t>Encouraging Kiss</t>
+  </si>
+  <si>
+    <t>Energy Drain</t>
+  </si>
+  <si>
+    <t>Gale Dance</t>
+  </si>
+  <si>
+    <t>Firestorm Dance</t>
+  </si>
+  <si>
+    <t>Carnivourous Flower</t>
+  </si>
+  <si>
+    <t>Seductive Song</t>
+  </si>
+  <si>
+    <t>Seductive Pheromones</t>
+  </si>
+  <si>
+    <t>Forced Brainwashing Puff Puff</t>
+  </si>
+  <si>
+    <t>Seductive Valley</t>
+  </si>
+  <si>
+    <t>Arousal Evasion Bracelet</t>
+  </si>
+  <si>
+    <t>Mystrious Medal</t>
+  </si>
+  <si>
+    <t>Lucky Medal</t>
+  </si>
+  <si>
+    <t>Cursed Drop</t>
+  </si>
+  <si>
+    <t>Magic Up</t>
+  </si>
+  <si>
+    <t>Miraculous Tablet</t>
+  </si>
+  <si>
+    <t>Goddess Symbol</t>
+  </si>
+  <si>
+    <t>Mysterious Tablet</t>
+  </si>
+  <si>
+    <t>Rustic Tablet</t>
+  </si>
+  <si>
+    <t>Joyful Jewel</t>
+  </si>
+  <si>
+    <t>Luminous Pendant</t>
+  </si>
+  <si>
+    <t>Blood Pendant</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Enigmatic Statue</t>
+  </si>
+  <si>
+    <t>Candleabra</t>
+  </si>
+  <si>
+    <t>Bullion</t>
+  </si>
+  <si>
+    <t>Chipped Fine China</t>
+  </si>
+  <si>
+    <t>Ancient Drops</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Mythical Ring</t>
+  </si>
+  <si>
+    <t>Ring of Chance</t>
+  </si>
+  <si>
+    <t>Luck Boost+</t>
+  </si>
+  <si>
+    <t>Skill Boost+</t>
+  </si>
+  <si>
+    <t>Speed Boost+</t>
+  </si>
+  <si>
+    <t>Magic Boost+</t>
+  </si>
+  <si>
+    <t>Mythical Boost</t>
+  </si>
+  <si>
+    <t>HP Down</t>
+  </si>
+  <si>
+    <t>Str Down</t>
+  </si>
+  <si>
+    <t>Mag Down</t>
+  </si>
+  <si>
+    <t>Skl Down</t>
+  </si>
+  <si>
+    <t>Spd Down</t>
+  </si>
+  <si>
+    <t>Wil Down</t>
+  </si>
+  <si>
+    <t>Luk Down</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection sqref="A1:D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1509,375 +1509,375 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
         <v>34</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
         <v>40</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="B91" t="s">
         <v>39</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s">
         <v>46</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>49</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="B104" t="s">
         <v>52</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="B107" t="s">
         <v>55</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="B113" t="s">
         <v>60</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -2421,656 +2421,653 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" t="s">
         <v>61</v>
-      </c>
-      <c r="B115" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="B116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>64</v>
-      </c>
-      <c r="B117" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>358</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>352</v>
       </c>
       <c r="B147" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="B150" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>97</v>
+        <v>348</v>
       </c>
       <c r="B151" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="B152" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="B153" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="B154" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>104</v>
+        <v>344</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
       <c r="B158" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
       <c r="B160" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="B163" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="B166" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B167" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="B168" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="B169" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>125</v>
+        <v>332</v>
       </c>
       <c r="B170" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="B172" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="B173" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="B175" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="B176" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="B177" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B178" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="B179" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="B180" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="B181" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="B182" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="B183" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="B185" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="B186" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="B187" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="B188" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="B190" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="B191" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="B192" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="B196" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="B198" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>176</v>
+        <v>312</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="B201" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -646,9 +646,6 @@
     <t>Large Panacea Pack</t>
   </si>
   <si>
-    <t>A magical leaf that can be used multiple times. Heals 10- HP.</t>
-  </si>
-  <si>
     <t>A magical leaf that can be used multiple times. Heals 20 HP.</t>
   </si>
   <si>
@@ -838,9 +835,6 @@
     <t>Healer</t>
   </si>
   <si>
-    <t>Discoverable House</t>
-  </si>
-  <si>
     <t>Wonderous Cane</t>
   </si>
   <si>
@@ -1133,6 +1127,12 @@
   </si>
   <si>
     <t>Luk Down</t>
+  </si>
+  <si>
+    <t>Excavator</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Heals 10 HP.</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>158</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
         <v>235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1541,10 +1541,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
         <v>231</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1557,7 +1557,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>147</v>
@@ -1709,50 +1709,50 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1845,39 +1845,39 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" t="s">
         <v>210</v>
-      </c>
-      <c r="B46" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s">
         <v>34</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
         <v>40</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B91" t="s">
         <v>39</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
         <v>46</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
         <v>49</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B104" t="s">
         <v>52</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
         <v>55</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B113" t="s">
         <v>60</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
         <v>61</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -2437,12 +2437,12 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s">
         <v>63</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
         <v>66</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B125" t="s">
         <v>70</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
         <v>71</v>
@@ -2584,31 +2584,31 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B144" t="s">
         <v>72</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B145" t="s">
         <v>73</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B146" t="s">
         <v>74</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B147" t="s">
         <v>75</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B148" t="s">
         <v>76</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B150" t="s">
         <v>78</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B151" t="s">
         <v>79</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B152" t="s">
         <v>80</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B153" t="s">
         <v>81</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B154" t="s">
         <v>75</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B156" t="s">
         <v>82</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B157" t="s">
         <v>82</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B158" t="s">
         <v>83</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B159" t="s">
         <v>84</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B160" t="s">
         <v>85</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
         <v>86</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B162" t="s">
         <v>87</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B163" t="s">
         <v>88</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B164" t="s">
         <v>89</v>
@@ -2776,7 +2776,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B165" t="s">
         <v>90</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
         <v>90</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B168" t="s">
         <v>106</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B169" t="s">
         <v>91</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B170" t="s">
         <v>92</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B171" t="s">
         <v>93</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B172" t="s">
         <v>94</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B173" t="s">
         <v>95</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B174" t="s">
         <v>96</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B175" t="s">
         <v>97</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B176" t="s">
         <v>98</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B177" t="s">
         <v>99</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B178" t="s">
         <v>100</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B179" t="s">
         <v>101</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B180" t="s">
         <v>102</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B181" t="s">
         <v>103</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B182" t="s">
         <v>104</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B183" t="s">
         <v>105</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B184" t="s">
         <v>107</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s">
         <v>108</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B186" t="s">
         <v>109</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B187" t="s">
         <v>110</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B188" t="s">
         <v>111</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B189" t="s">
         <v>112</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
         <v>113</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B191" t="s">
         <v>114</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B192" t="s">
         <v>115</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B193" t="s">
         <v>116</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
         <v>117</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
         <v>118</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B196" t="s">
         <v>119</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B197" t="s">
         <v>120</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B198" t="s">
         <v>121</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>122</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B200" t="s">
         <v>123</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B201" t="s">
         <v>124</v>

--- a/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
+++ b/English translation/その他文字 (Items, Skills, Characters, Descriptions)/items.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\English Translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13354" windowHeight="5957"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,9 +497,6 @@
     <t>Sweet Tincture</t>
   </si>
   <si>
-    <t>Alruane's Nectar</t>
-  </si>
-  <si>
     <t>The holy sword of light.  It's true power will be unleashed when used.</t>
   </si>
   <si>
@@ -514,27 +506,6 @@
     <t>Lamia Tea</t>
   </si>
   <si>
-    <t>Use to gradually restore HP for 5 turns.</t>
-  </si>
-  <si>
-    <t>Heals 15 HP to an adjacent unit.</t>
-  </si>
-  <si>
-    <t>Heals 45 HP to an adjacent unit.</t>
-  </si>
-  <si>
-    <t>Heals 80 HP to an adjacent unit.</t>
-  </si>
-  <si>
-    <t>Heals 5 HP to an adjacent unit.</t>
-  </si>
-  <si>
-    <t>Fully Heals all HP to unit.</t>
-  </si>
-  <si>
-    <t>Heals all HP to an adjacent unit.</t>
-  </si>
-  <si>
     <t>Max Potion</t>
   </si>
   <si>
@@ -553,27 +524,18 @@
     <t>Increases Avoidance for 3 turns.</t>
   </si>
   <si>
-    <t>Greatly Increases Avoidance for 3 turns.</t>
-  </si>
-  <si>
     <t>Speed Tonic</t>
   </si>
   <si>
     <t>Speed Potion</t>
   </si>
   <si>
-    <t>Grants HP + 20 for 3 turns.</t>
-  </si>
-  <si>
     <t>HP Potion</t>
   </si>
   <si>
     <t>HP Tonic</t>
   </si>
   <si>
-    <t>Grants HP + 50 for 3 turns.</t>
-  </si>
-  <si>
     <t>Poison</t>
   </si>
   <si>
@@ -586,18 +548,12 @@
     <t>Badly poisons an adjacent enemy.</t>
   </si>
   <si>
-    <t>Aphrodasiac</t>
-  </si>
-  <si>
     <t>Seductive Aroma</t>
   </si>
   <si>
     <t>May inflict "Charm" on enemies while held.</t>
   </si>
   <si>
-    <t>Lowers the stats of surrouding male units within a three tile radius.</t>
-  </si>
-  <si>
     <t>Bottled Slime</t>
   </si>
   <si>
@@ -613,9 +569,6 @@
     <t>Smelling Salts</t>
   </si>
   <si>
-    <t>Cures an adjacent chamed unit.</t>
-  </si>
-  <si>
     <t>Brainwashing Medicine</t>
   </si>
   <si>
@@ -625,9 +578,6 @@
     <t xml:space="preserve">Temptation Medicine </t>
   </si>
   <si>
-    <t>Arousal Nulifier</t>
-  </si>
-  <si>
     <t>Cures an adjacent unit from arousal.</t>
   </si>
   <si>
@@ -646,9 +596,6 @@
     <t>Large Panacea Pack</t>
   </si>
   <si>
-    <t>A magical leaf that can be used multiple times. Heals 20 HP.</t>
-  </si>
-  <si>
     <t>Healing Leaf</t>
   </si>
   <si>
@@ -658,21 +605,12 @@
     <t>Spirit Leaf</t>
   </si>
   <si>
-    <t>A magical leaf that can be used multiple times. Heals 80 HP.</t>
-  </si>
-  <si>
     <t>Goddess Leaf</t>
   </si>
   <si>
-    <t>A magical leaf that can be used multiple times. Heals 120 HP.</t>
-  </si>
-  <si>
     <t>Gold +1000</t>
   </si>
   <si>
-    <t>Increases strength by 2 when held.</t>
-  </si>
-  <si>
     <t>Power Band</t>
   </si>
   <si>
@@ -682,15 +620,6 @@
     <t>Protection Ring</t>
   </si>
   <si>
-    <t>Increases defence by 2 when held.</t>
-  </si>
-  <si>
-    <t>Increases resistance by 2 when held.</t>
-  </si>
-  <si>
-    <t>Permantly decreases foe's defence by 1 after combat.</t>
-  </si>
-  <si>
     <t>Strength Sap</t>
   </si>
   <si>
@@ -709,27 +638,6 @@
     <t>Vaunted Sap</t>
   </si>
   <si>
-    <t>Permantly decreases foe's strength by 1 after combat.</t>
-  </si>
-  <si>
-    <t>Permantly decreases foe's skill by 1 after combat.</t>
-  </si>
-  <si>
-    <t>Permantly decreases foe's magic by 1 after combat.</t>
-  </si>
-  <si>
-    <t>Permantly decreases foe's speed by 1 after combat.</t>
-  </si>
-  <si>
-    <t>Permantly decreases all foe's stats by 2 after combat.</t>
-  </si>
-  <si>
-    <t>Female Recruitment Deploma</t>
-  </si>
-  <si>
-    <t>When held, allows female succubus enemies from past chapters to be recruited.</t>
-  </si>
-  <si>
     <t>Amihan</t>
   </si>
   <si>
@@ -739,9 +647,6 @@
     <t>Sealed Cloth Sigil</t>
   </si>
   <si>
-    <t>A cloth with the power to surpress curses. Originaly wrapped around the holy sword Mithrus. It's used to cover the hilt of the sword.</t>
-  </si>
-  <si>
     <t>Sour Leaf</t>
   </si>
   <si>
@@ -793,9 +698,6 @@
     <t>Elf's Amulet</t>
   </si>
   <si>
-    <t>Fourleafed Clover</t>
-  </si>
-  <si>
     <t>Heavy Armour</t>
   </si>
   <si>
@@ -835,24 +737,15 @@
     <t>Healer</t>
   </si>
   <si>
-    <t>Wonderous Cane</t>
-  </si>
-  <si>
     <t>Brainwashing Restoration Stave</t>
   </si>
   <si>
     <t>Charm Restoration Stave</t>
   </si>
   <si>
-    <t>Curious Restoration Save</t>
-  </si>
-  <si>
     <t>Stave of Paralysis</t>
   </si>
   <si>
-    <t>Powerup Stave</t>
-  </si>
-  <si>
     <t>Speed Stave</t>
   </si>
   <si>
@@ -979,18 +872,12 @@
     <t>Giant Restoration Mushroom</t>
   </si>
   <si>
-    <t>Alice's Brassire</t>
-  </si>
-  <si>
     <t>Sexy Panties</t>
   </si>
   <si>
     <t>Maid's Glove</t>
   </si>
   <si>
-    <t>Succubus Brassire</t>
-  </si>
-  <si>
     <t>Succubus Panties</t>
   </si>
   <si>
@@ -1012,9 +899,6 @@
     <t>Firestorm Dance</t>
   </si>
   <si>
-    <t>Carnivourous Flower</t>
-  </si>
-  <si>
     <t>Seductive Song</t>
   </si>
   <si>
@@ -1030,9 +914,6 @@
     <t>Arousal Evasion Bracelet</t>
   </si>
   <si>
-    <t>Mystrious Medal</t>
-  </si>
-  <si>
     <t>Lucky Medal</t>
   </si>
   <si>
@@ -1132,13 +1013,127 @@
     <t>Excavator</t>
   </si>
   <si>
-    <t>A magical leaf that can be used multiple times. Heals 10 HP.</t>
+    <t>A cloth with the power to surpress curses. Originally wrapped around the holy sword Mithrus. It's used to cover the hilt of the sword.</t>
+  </si>
+  <si>
+    <t>When held, allows female succubi from past chapters to be recruited.</t>
+  </si>
+  <si>
+    <t>Alraune's Nectar</t>
+  </si>
+  <si>
+    <t>Gradually restore user's HP for 5 turns.</t>
+  </si>
+  <si>
+    <t>Greatly increases Avoidance for 3 turns.</t>
+  </si>
+  <si>
+    <t>Increases Max HP by 20 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Increases Max HP by 50 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Permanently decreases foe's Strength by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permanently decreases foe's Defence by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permanently decreases foe's Magic by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permanently decreases foe's Skill by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permanently decreases foe's Speed by 1 after combat.</t>
+  </si>
+  <si>
+    <t>Permanently decreases all of a foe's stats by 2 after combat.</t>
+  </si>
+  <si>
+    <t>Increases Strength by 2 when held.</t>
+  </si>
+  <si>
+    <t>Increases Defence by 2 when held.</t>
+  </si>
+  <si>
+    <t>Increases Resistance by 2 when held.</t>
+  </si>
+  <si>
+    <t>Female Recruitment Diploma</t>
+  </si>
+  <si>
+    <t>Aphrodisiac</t>
+  </si>
+  <si>
+    <t>Lowers the stats of male units within a three tile radius.</t>
+  </si>
+  <si>
+    <t>Arousal Nullifier</t>
+  </si>
+  <si>
+    <t>Four-leaf Clover</t>
+  </si>
+  <si>
+    <t>Wondrous Cane</t>
+  </si>
+  <si>
+    <t>Curious Restoration Stave</t>
+  </si>
+  <si>
+    <t>Power-up Stave</t>
+  </si>
+  <si>
+    <t>Mysterious Medal</t>
+  </si>
+  <si>
+    <t>Carnivorous Flower</t>
+  </si>
+  <si>
+    <t>Succubus Brassiere</t>
+  </si>
+  <si>
+    <t>Alice's Brassiere</t>
+  </si>
+  <si>
+    <t>Restores 15 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Restores 45 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Restores 80 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Restores 5 HP to an adjacent unit.</t>
+  </si>
+  <si>
+    <t>Fully restores user's HP.</t>
+  </si>
+  <si>
+    <t>Restores full HP to all allies.</t>
+  </si>
+  <si>
+    <t>Cures an adjacent charmed unit.</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Restores 10 HP to an adjacent ally.</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Restores 80 HP to an adjacent ally.</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Restores 20 HP to an adjacent ally.</t>
+  </si>
+  <si>
+    <t>A magical leaf that can be used multiple times. Restores 120 HP to an adjacent ally.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1178,8 +1173,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1294,7 +1298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1488,7 +1492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1496,396 +1500,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.61328125" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>344</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>149</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>150</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>151</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>152</v>
       </c>
-      <c r="B12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>155</v>
       </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>330</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>154</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>168</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>175</v>
       </c>
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>177</v>
       </c>
-      <c r="B22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>180</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>190</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B45" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
         <v>192</v>
       </c>
-      <c r="B36" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B46" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>206</v>
-      </c>
-      <c r="B44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>209</v>
-      </c>
-      <c r="B46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1893,7 +2095,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1901,7 +2103,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1909,7 +2111,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -1917,7 +2119,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -1925,7 +2127,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1933,7 +2135,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1941,7 +2143,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -1949,7 +2151,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
@@ -1957,7 +2159,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1965,7 +2167,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1973,7 +2175,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1981,7 +2183,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -1989,7 +2191,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -1997,7 +2199,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -2005,7 +2207,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -2013,7 +2215,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -2021,7 +2223,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2029,7 +2231,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
@@ -2037,7 +2239,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2045,7 +2247,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -2053,7 +2255,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
@@ -2061,7 +2263,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -2069,7 +2271,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -2077,7 +2279,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
         <v>25</v>
@@ -2085,7 +2287,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -2093,7 +2295,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2101,7 +2303,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
         <v>28</v>
@@ -2109,7 +2311,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s">
         <v>29</v>
@@ -2117,7 +2319,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
@@ -2125,7 +2327,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
         <v>31</v>
@@ -2133,7 +2335,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
@@ -2141,7 +2343,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -2149,7 +2351,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="B81" t="s">
         <v>34</v>
@@ -2157,7 +2359,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -2165,7 +2367,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
         <v>36</v>
@@ -2173,7 +2375,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
         <v>37</v>
@@ -2181,7 +2383,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>38</v>
@@ -2189,7 +2391,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B86" t="s">
         <v>39</v>
@@ -2197,7 +2399,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
         <v>40</v>
@@ -2205,7 +2407,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
         <v>41</v>
@@ -2213,7 +2415,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
         <v>42</v>
@@ -2221,7 +2423,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
         <v>38</v>
@@ -2229,7 +2431,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
         <v>39</v>
@@ -2237,7 +2439,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
         <v>40</v>
@@ -2245,7 +2447,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -2253,7 +2455,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="B94" t="s">
         <v>42</v>
@@ -2261,7 +2463,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
@@ -2269,7 +2471,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
@@ -2277,7 +2479,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B97" t="s">
         <v>45</v>
@@ -2285,7 +2487,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
         <v>46</v>
@@ -2293,7 +2495,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B99" t="s">
         <v>47</v>
@@ -2301,7 +2503,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2309,7 +2511,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
         <v>49</v>
@@ -2317,7 +2519,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="B102" t="s">
         <v>50</v>
@@ -2325,7 +2527,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -2333,7 +2535,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B104" t="s">
         <v>52</v>
@@ -2341,7 +2543,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
@@ -2349,7 +2551,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B106" t="s">
         <v>54</v>
@@ -2357,7 +2559,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
         <v>55</v>
@@ -2365,7 +2567,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
@@ -2373,7 +2575,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
@@ -2381,7 +2583,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
         <v>58</v>
@@ -2389,7 +2591,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
@@ -2397,7 +2599,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
@@ -2405,7 +2607,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B113" t="s">
         <v>60</v>
@@ -2413,7 +2615,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -2421,7 +2623,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
         <v>61</v>
@@ -2429,7 +2631,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -2437,12 +2639,12 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B118" t="s">
         <v>63</v>
@@ -2450,7 +2652,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
@@ -2458,7 +2660,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -2466,7 +2668,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s">
         <v>66</v>
@@ -2474,7 +2676,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B122" t="s">
         <v>67</v>
@@ -2482,7 +2684,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s">
         <v>68</v>
@@ -2490,7 +2692,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
         <v>69</v>
@@ -2498,7 +2700,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="B125" t="s">
         <v>70</v>
@@ -2506,7 +2708,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="B126" t="s">
         <v>71</v>
@@ -2522,349 +2724,367 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>213</v>
-      </c>
-      <c r="B141" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>214</v>
-      </c>
-      <c r="B142" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>215</v>
-      </c>
-      <c r="B143" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B144" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B145" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B146" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="B147" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="B148" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B150" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B151" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B152" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>127</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="B156" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B157" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="B158" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="B159" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="B160" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B161" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B162" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="B163" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B164" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B166" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>126</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B168" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B169" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="B170" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B171" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="B172" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B173" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B174" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
         <v>98</v>
@@ -2872,7 +3092,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="B177" t="s">
         <v>99</v>
@@ -2880,7 +3100,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B178" t="s">
         <v>100</v>
@@ -2888,7 +3108,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>101</v>
@@ -2896,7 +3116,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B180" t="s">
         <v>102</v>
@@ -2904,7 +3124,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B181" t="s">
         <v>103</v>
@@ -2912,7 +3132,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B182" t="s">
         <v>104</v>
@@ -2920,7 +3140,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
         <v>105</v>
@@ -2928,7 +3148,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="B184" t="s">
         <v>107</v>
@@ -2936,7 +3156,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B185" t="s">
         <v>108</v>
@@ -2944,7 +3164,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
         <v>109</v>
@@ -2952,7 +3172,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="B187" t="s">
         <v>110</v>
@@ -2960,7 +3180,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
         <v>111</v>
@@ -2968,7 +3188,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="B189" t="s">
         <v>112</v>
@@ -2976,7 +3196,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="B190" t="s">
         <v>113</v>
@@ -2984,7 +3204,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>114</v>
@@ -2992,7 +3212,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B192" t="s">
         <v>115</v>
@@ -3000,7 +3220,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="B193" t="s">
         <v>116</v>
@@ -3008,7 +3228,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
         <v>117</v>
@@ -3016,7 +3236,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B195" t="s">
         <v>118</v>
@@ -3024,7 +3244,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="B196" t="s">
         <v>119</v>
@@ -3032,7 +3252,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="B197" t="s">
         <v>120</v>
@@ -3040,7 +3260,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B198" t="s">
         <v>121</v>
@@ -3048,7 +3268,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="B199" t="s">
         <v>122</v>
@@ -3056,7 +3276,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
         <v>123</v>
@@ -3064,13 +3284,66 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B167:I167"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
